--- a/Document/AS-IS 분석.xlsx
+++ b/Document/AS-IS 분석.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sap_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>As-Is</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>담당자가 매뉴얼로 납품 건마다 S/O 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 구매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,18 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생산 팀 재고 담당자가 사용량 파악 후 PR 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 담당자가 매일 PR 유무 확인 후 PO작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 창고에서 재고 담당자가 PDA로 시스템에 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월말에 담당자가 GR된 건들에 한하여 Vendor 단위로 IV 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +83,118 @@
   </si>
   <si>
     <t xml:space="preserve">1. 사용량 계산 번거로움.  2. 데이터 입력 오류 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 판매팀 담당자가 매뉴얼로 납품 건마다 S/O 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용량 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수/금마다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산팀 담당자가 생산 정보를 토대로    사용량 엑셀 작성(실 사용량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 재고를 토대로 필요량 엑셀 작성(요 주문량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월/목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 팀 담당자가 매뉴얼로 시스템에 PR 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구매 담당자가 시스템에서 PR 확인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info rec을 기준으로  vendor 지정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드에서 PO 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매요청 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info rec 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송시간 5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vendor master </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고된 물품 검사 -&gt; 가용 재고로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일 소요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재, 수량, 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 창고에서 재고 담당자가 PDA로 외부 시스템에 등록 및 엑셀파일 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재고 담당자가 엑셀파일을 보고 GR 작성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ers?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor에서 PO를 기준으로한 청구서를 보내줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구서에 있는 PO와 GR 처리된 PO를 IV verification을 통해 비교.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,15 +244,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -174,28 +257,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,153 +561,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="52.296875" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="62.296875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="H6" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/AS-IS 분석.xlsx
+++ b/Document/AS-IS 분석.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>As-Is</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,131 +70,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이하 동문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사람이 확인하다보니 누락 건 발생. 2. 판매량이 많을 경우 작성량이 너무 많아짐.  3. 데이터 입력 오류 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 사용량 계산 번거로움.  2. 데이터 입력 오류 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 판매팀 담당자가 매뉴얼로 납품 건마다 S/O 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용량 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수/금마다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 재고를 토대로 필요량 엑셀 작성(요 주문량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월/목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 팀 담당자가 매뉴얼로 시스템에 PR 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구매 담당자가 시스템에서 PR 확인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info rec을 기준으로  vendor 지정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠다드에서 PO 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매요청 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info rec 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송시간 5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vendor master </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고된 물품 검사 -&gt; 가용 재고로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일 소요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재, 수량, 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 창고에서 재고 담당자가 PDA로 외부 시스템에 등록 및 엑셀파일 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 재고 담당자가 엑셀파일을 보고 GR 작성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ers?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendor에서 PO를 기준으로한 청구서를 보내줌.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구서에 있는 PO와 GR 처리된 PO를 IV verification을 통해 비교.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> inspector와 automate를 이용해서 자동으로 엑셀 작업을 시행해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel을 업로드하여 s/o를 자동으로 생성해주는 cbo 제작.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>개선점.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이하 동문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 사람이 확인하다보니 누락 건 발생. 2. 판매량이 많을 경우 작성량이 너무 많아짐.  3. 데이터 입력 오류 가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 사용량 계산 번거로움.  2. 데이터 입력 오류 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매일 판매팀 담당자가 매뉴얼로 납품 건마다 S/O 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용량 파악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고 파악</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수/금마다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산팀 담당자가 생산 정보를 토대로    사용량 엑셀 작성(실 사용량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 재고를 토대로 필요량 엑셀 작성(요 주문량)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월/목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산 팀 담당자가 매뉴얼로 시스템에 PR 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">구매 담당자가 시스템에서 PR 확인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info rec을 기준으로  vendor 지정.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠다드에서 PO 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매요청 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info rec 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송시간 5일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">vendor master </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건 입고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입고된 물품 검사 -&gt; 가용 재고로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2일 소요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자재, 수량, 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 창고에서 재고 담당자가 PDA로 외부 시스템에 등록 및 엑셀파일 생성.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 재고 담당자가 엑셀파일을 보고 GR 작성.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ers?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vendor에서 PO를 기준으로한 청구서를 보내줌.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청구서에 있는 PO와 GR 처리된 PO를 IV verification을 통해 비교.</t>
+    <t>생산팀 담당자가 판매 오더를 토대로    사용량 엑셀 작성(실 사용량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 오더를 기준으로 사용량 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 재고-사용량 &lt; 안전재고 =&gt;  PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요량 만큼 자동으로 PR 생성.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,13 +268,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,20 +301,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -572,26 +613,31 @@
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
     <col min="2" max="2" width="62.296875" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" customWidth="1"/>
+    <col min="6" max="6" width="28.09765625" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -599,17 +645,15 @@
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -617,182 +661,229 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" s="4"/>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F11" s="1"/>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="6"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="6"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C18" s="6"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="6"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
